--- a/WEB AUTOMATION/PIN CHECKER/KRA/passwords_clients.xlsx
+++ b/WEB AUTOMATION/PIN CHECKER/KRA/passwords_clients.xlsx
@@ -1,47 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>P051619980A</t>
+  </si>
+  <si>
+    <t>bclitax2023</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>A014331457J</t>
+  </si>
+  <si>
+    <t>bcliax2023</t>
+  </si>
+  <si>
+    <t>A010799419F</t>
+  </si>
+  <si>
+    <t>A016388740B</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="14"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="1"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,8 +88,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -87,88 +120,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -434,111 +408,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C2:C5"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12.140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
+    <row r="1" ht="18.75" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>P051619980A</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>bclitax2023</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Valid</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>A014331457J</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>bclitax2023</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Valid</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>A010799419F</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>bclitax2023</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Valid</t>
-        </is>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>A016388740B</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>bclitax2023</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Valid</t>
-        </is>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/WEB AUTOMATION/PIN CHECKER/KRA/passwords_clients.xlsx
+++ b/WEB AUTOMATION/PIN CHECKER/KRA/passwords_clients.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -37,7 +37,7 @@
     <t>A014331457J</t>
   </si>
   <si>
-    <t>bcliax2023</t>
+    <t>Invalid</t>
   </si>
   <si>
     <t>A010799419F</t>
@@ -52,28 +52,28 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,13 +82,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF00"/>
+        <fgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -119,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -129,6 +134,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,18 +417,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,10 +455,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,6 +485,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/WEB AUTOMATION/PIN CHECKER/KRA/passwords_clients.xlsx
+++ b/WEB AUTOMATION/PIN CHECKER/KRA/passwords_clients.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1188" yWindow="1188" windowWidth="17280" windowHeight="9360"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Client</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>A014331457J</t>
-  </si>
-  <si>
-    <t>Invalid</t>
   </si>
   <si>
     <t>A010799419F</t>
@@ -52,28 +49,28 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,18 +79,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -124,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -134,7 +126,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,18 +408,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="18.75" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,13 +448,13 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -474,7 +465,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -485,6 +476,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/WEB AUTOMATION/PIN CHECKER/KRA/passwords_clients.xlsx
+++ b/WEB AUTOMATION/PIN CHECKER/KRA/passwords_clients.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Client</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>A014331457J</t>
-  </si>
-  <si>
-    <t>Invalid</t>
   </si>
   <si>
     <t>A010799419F</t>
@@ -52,28 +49,28 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,18 +79,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -124,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -134,7 +126,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,18 +408,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="18.75" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,13 +448,13 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -474,7 +465,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -485,6 +476,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>